--- a/data.xlsx
+++ b/data.xlsx
@@ -348,7 +348,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -358,45 +358,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="B2">
-        <v>-1.172694325447083</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="C3">
-        <v>11136.7275390625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="D4">
-        <v>-2.52111554145813</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="E5">
-        <v>48.80092620849609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="F6">
+      <c r="B1">
+        <v>-3.840200901031494</v>
+      </c>
+      <c r="C1">
+        <v>1696.101684570312</v>
+      </c>
+      <c r="D1">
+        <v>-6.374508857727051</v>
+      </c>
+      <c r="E1">
+        <v>64.01581573486328</v>
+      </c>
+      <c r="F1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="G7">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="H8">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="I9">
-        <v>100</v>
+      <c r="G1">
+        <v>428</v>
+      </c>
+      <c r="H1">
+        <v>107</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,9 +14,189 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>data02</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>var</t>
+  </si>
+  <si>
+    <t>skew</t>
+  </si>
+  <si>
+    <t>kurtosis</t>
+  </si>
+  <si>
+    <t>sampling_rate</t>
+  </si>
+  <si>
+    <t>num_train_samples</t>
+  </si>
+  <si>
+    <t>num_test_samples</t>
+  </si>
+  <si>
+    <t>output_dim</t>
+  </si>
+  <si>
+    <t>mean_1</t>
+  </si>
+  <si>
+    <t>mean_2</t>
+  </si>
+  <si>
+    <t>mean_3</t>
+  </si>
+  <si>
+    <t>mean_4</t>
+  </si>
+  <si>
+    <t>mean_5</t>
+  </si>
+  <si>
+    <t>mean_6</t>
+  </si>
+  <si>
+    <t>mean_7</t>
+  </si>
+  <si>
+    <t>mean_8</t>
+  </si>
+  <si>
+    <t>mean_9</t>
+  </si>
+  <si>
+    <t>mean_10</t>
+  </si>
+  <si>
+    <t>mean_11</t>
+  </si>
+  <si>
+    <t>mean_12</t>
+  </si>
+  <si>
+    <t>mean_13</t>
+  </si>
+  <si>
+    <t>var_1</t>
+  </si>
+  <si>
+    <t>var_2</t>
+  </si>
+  <si>
+    <t>var_3</t>
+  </si>
+  <si>
+    <t>var_4</t>
+  </si>
+  <si>
+    <t>var_5</t>
+  </si>
+  <si>
+    <t>var_6</t>
+  </si>
+  <si>
+    <t>var_7</t>
+  </si>
+  <si>
+    <t>var_8</t>
+  </si>
+  <si>
+    <t>var_9</t>
+  </si>
+  <si>
+    <t>var_10</t>
+  </si>
+  <si>
+    <t>var_11</t>
+  </si>
+  <si>
+    <t>var_12</t>
+  </si>
+  <si>
+    <t>var_13</t>
+  </si>
+  <si>
+    <t>skew_1</t>
+  </si>
+  <si>
+    <t>skew_2</t>
+  </si>
+  <si>
+    <t>skew_3</t>
+  </si>
+  <si>
+    <t>skew_4</t>
+  </si>
+  <si>
+    <t>skew_5</t>
+  </si>
+  <si>
+    <t>skew_6</t>
+  </si>
+  <si>
+    <t>skew_7</t>
+  </si>
+  <si>
+    <t>skew_8</t>
+  </si>
+  <si>
+    <t>skew_9</t>
+  </si>
+  <si>
+    <t>skew_10</t>
+  </si>
+  <si>
+    <t>skew_11</t>
+  </si>
+  <si>
+    <t>skew_12</t>
+  </si>
+  <si>
+    <t>skew_13</t>
+  </si>
+  <si>
+    <t>kurtosis_1</t>
+  </si>
+  <si>
+    <t>kurtosis_2</t>
+  </si>
+  <si>
+    <t>kurtosis_3</t>
+  </si>
+  <si>
+    <t>kurtosis_4</t>
+  </si>
+  <si>
+    <t>kurtosis_5</t>
+  </si>
+  <si>
+    <t>kurtosis_6</t>
+  </si>
+  <si>
+    <t>kurtosis_7</t>
+  </si>
+  <si>
+    <t>kurtosis_8</t>
+  </si>
+  <si>
+    <t>kurtosis_9</t>
+  </si>
+  <si>
+    <t>kurtosis_10</t>
+  </si>
+  <si>
+    <t>kurtosis_11</t>
+  </si>
+  <si>
+    <t>kurtosis_12</t>
+  </si>
+  <si>
+    <t>kurtosis_13</t>
   </si>
 </sst>
 </file>
@@ -348,39 +528,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:BI1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>-3.840200901031494</v>
-      </c>
-      <c r="C1">
-        <v>1696.101684570312</v>
-      </c>
-      <c r="D1">
-        <v>-6.374508857727051</v>
-      </c>
-      <c r="E1">
-        <v>64.01581573486328</v>
-      </c>
-      <c r="F1">
-        <v>16000</v>
-      </c>
-      <c r="G1">
-        <v>428</v>
-      </c>
-      <c r="H1">
-        <v>107</v>
-      </c>
-      <c r="I1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>name</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>kurtosis_13</t>
+  </si>
+  <si>
+    <t>data02</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI1"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -719,6 +722,191 @@
         <v>60</v>
       </c>
     </row>
+    <row r="2" spans="1:61">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2">
+        <v>-3.840200901031494</v>
+      </c>
+      <c r="C2">
+        <v>1696.101684570312</v>
+      </c>
+      <c r="D2">
+        <v>-6.374508857727051</v>
+      </c>
+      <c r="E2">
+        <v>64.01581573486328</v>
+      </c>
+      <c r="F2">
+        <v>16000</v>
+      </c>
+      <c r="G2">
+        <v>428</v>
+      </c>
+      <c r="H2">
+        <v>107</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+      <c r="J2">
+        <v>-64.01511383056641</v>
+      </c>
+      <c r="K2">
+        <v>20.50575065612793</v>
+      </c>
+      <c r="L2">
+        <v>-1.138387560844421</v>
+      </c>
+      <c r="M2">
+        <v>8.077459335327148</v>
+      </c>
+      <c r="N2">
+        <v>-2.1902916431427</v>
+      </c>
+      <c r="O2">
+        <v>1.450968146324158</v>
+      </c>
+      <c r="P2">
+        <v>-3.553107500076294</v>
+      </c>
+      <c r="Q2">
+        <v>-2.37901759147644</v>
+      </c>
+      <c r="R2">
+        <v>-3.449496269226074</v>
+      </c>
+      <c r="S2">
+        <v>-0.1821332424879074</v>
+      </c>
+      <c r="T2">
+        <v>-1.816792249679565</v>
+      </c>
+      <c r="U2">
+        <v>-0.9550880193710327</v>
+      </c>
+      <c r="V2">
+        <v>-0.2773734927177429</v>
+      </c>
+      <c r="W2">
+        <v>6405.6884765625</v>
+      </c>
+      <c r="X2">
+        <v>1215.904663085938</v>
+      </c>
+      <c r="Y2">
+        <v>506.6907348632812</v>
+      </c>
+      <c r="Z2">
+        <v>335.8656005859375</v>
+      </c>
+      <c r="AA2">
+        <v>178.3617401123047</v>
+      </c>
+      <c r="AB2">
+        <v>127.0764312744141</v>
+      </c>
+      <c r="AC2">
+        <v>105.6738739013672</v>
+      </c>
+      <c r="AD2">
+        <v>70.32485198974609</v>
+      </c>
+      <c r="AE2">
+        <v>74.35933685302734</v>
+      </c>
+      <c r="AF2">
+        <v>59.76704788208008</v>
+      </c>
+      <c r="AG2">
+        <v>45.40332412719727</v>
+      </c>
+      <c r="AH2">
+        <v>43.55268096923828</v>
+      </c>
+      <c r="AI2">
+        <v>41.70645904541016</v>
+      </c>
+      <c r="AJ2">
+        <v>-8.965222358703613</v>
+      </c>
+      <c r="AK2">
+        <v>7.811622619628906</v>
+      </c>
+      <c r="AL2">
+        <v>5.573606014251709</v>
+      </c>
+      <c r="AM2">
+        <v>7.701500415802002</v>
+      </c>
+      <c r="AN2">
+        <v>4.162360668182373</v>
+      </c>
+      <c r="AO2">
+        <v>6.181712627410889</v>
+      </c>
+      <c r="AP2">
+        <v>-4.488078117370605</v>
+      </c>
+      <c r="AQ2">
+        <v>3.887552261352539</v>
+      </c>
+      <c r="AR2">
+        <v>-3.288266181945801</v>
+      </c>
+      <c r="AS2">
+        <v>4.393550395965576</v>
+      </c>
+      <c r="AT2">
+        <v>-3.062476634979248</v>
+      </c>
+      <c r="AU2">
+        <v>-0.9761384129524231</v>
+      </c>
+      <c r="AV2">
+        <v>6.102287769317627</v>
+      </c>
+      <c r="AW2">
+        <v>158.1645202636719</v>
+      </c>
+      <c r="AX2">
+        <v>140.6121215820312</v>
+      </c>
+      <c r="AY2">
+        <v>153.6333618164062</v>
+      </c>
+      <c r="AZ2">
+        <v>147.126220703125</v>
+      </c>
+      <c r="BA2">
+        <v>157.4544525146484</v>
+      </c>
+      <c r="BB2">
+        <v>145.8326721191406</v>
+      </c>
+      <c r="BC2">
+        <v>149.1525115966797</v>
+      </c>
+      <c r="BD2">
+        <v>151.6745147705078</v>
+      </c>
+      <c r="BE2">
+        <v>154.6830444335938</v>
+      </c>
+      <c r="BF2">
+        <v>147.8013763427734</v>
+      </c>
+      <c r="BG2">
+        <v>160.7463531494141</v>
+      </c>
+      <c r="BH2">
+        <v>148.9252624511719</v>
+      </c>
+      <c r="BI2">
+        <v>147.4690246582031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>data02</t>
+  </si>
+  <si>
+    <t>data03</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,6 +910,191 @@
         <v>147.4690246582031</v>
       </c>
     </row>
+    <row r="3" spans="1:61">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>-5.187178134918213</v>
+      </c>
+      <c r="C3">
+        <v>2439.79833984375</v>
+      </c>
+      <c r="D3">
+        <v>-5.921168327331543</v>
+      </c>
+      <c r="E3">
+        <v>48.80092620849609</v>
+      </c>
+      <c r="F3">
+        <v>16000</v>
+      </c>
+      <c r="G3">
+        <v>976</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>-83.01690673828125</v>
+      </c>
+      <c r="K3">
+        <v>23.02519035339355</v>
+      </c>
+      <c r="L3">
+        <v>1.281852126121521</v>
+      </c>
+      <c r="M3">
+        <v>7.189151763916016</v>
+      </c>
+      <c r="N3">
+        <v>-1.412479519844055</v>
+      </c>
+      <c r="O3">
+        <v>-1.505211710929871</v>
+      </c>
+      <c r="P3">
+        <v>-3.788246154785156</v>
+      </c>
+      <c r="Q3">
+        <v>-1.310200333595276</v>
+      </c>
+      <c r="R3">
+        <v>-2.795704364776611</v>
+      </c>
+      <c r="S3">
+        <v>-1.088527917861938</v>
+      </c>
+      <c r="T3">
+        <v>-2.036353349685669</v>
+      </c>
+      <c r="U3">
+        <v>-0.4716983139514923</v>
+      </c>
+      <c r="V3">
+        <v>-1.5041823387146</v>
+      </c>
+      <c r="W3">
+        <v>7356.1376953125</v>
+      </c>
+      <c r="X3">
+        <v>1293.49609375</v>
+      </c>
+      <c r="Y3">
+        <v>411.4866638183594</v>
+      </c>
+      <c r="Z3">
+        <v>321.1640930175781</v>
+      </c>
+      <c r="AA3">
+        <v>177.0852661132812</v>
+      </c>
+      <c r="AB3">
+        <v>132.5073699951172</v>
+      </c>
+      <c r="AC3">
+        <v>113.1301956176758</v>
+      </c>
+      <c r="AD3">
+        <v>85.62179565429688</v>
+      </c>
+      <c r="AE3">
+        <v>73.6739501953125</v>
+      </c>
+      <c r="AF3">
+        <v>56.71994018554688</v>
+      </c>
+      <c r="AG3">
+        <v>45.7271614074707</v>
+      </c>
+      <c r="AH3">
+        <v>39.68042755126953</v>
+      </c>
+      <c r="AI3">
+        <v>38.06981658935547</v>
+      </c>
+      <c r="AJ3">
+        <v>-10.66671562194824</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>224.3012390136719</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -202,7 +202,52 @@
     <t>data02</t>
   </si>
   <si>
+    <t>urbansound</t>
+  </si>
+  <si>
+    <t>spokenlanguage</t>
+  </si>
+  <si>
+    <t>data04</t>
+  </si>
+  <si>
     <t>data03</t>
+  </si>
+  <si>
+    <t>data05</t>
+  </si>
+  <si>
+    <t>number_mnist</t>
+  </si>
+  <si>
+    <t>music-speech</t>
+  </si>
+  <si>
+    <t>data01</t>
+  </si>
+  <si>
+    <t>librispeech</t>
+  </si>
+  <si>
+    <t>music_genre</t>
+  </si>
+  <si>
+    <t>espeak-gender</t>
+  </si>
+  <si>
+    <t>sick_no_sick</t>
+  </si>
+  <si>
+    <t>google_audio_set</t>
+  </si>
+  <si>
+    <t>acoustic</t>
+  </si>
+  <si>
+    <t>espeak-starcraft-words</t>
+  </si>
+  <si>
+    <t>espeak-numbers</t>
   </si>
 </sst>
 </file>
@@ -534,7 +579,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI3"/>
+  <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -915,183 +960,2958 @@
         <v>62</v>
       </c>
       <c r="B3">
-        <v>-5.187178134918213</v>
+        <v>-1.172694325447083</v>
       </c>
       <c r="C3">
-        <v>2439.79833984375</v>
+        <v>914.5833129882812</v>
       </c>
       <c r="D3">
-        <v>-5.921168327331543</v>
+        <v>-9.561925888061523</v>
       </c>
       <c r="E3">
-        <v>48.80092620849609</v>
+        <v>141.4987030029297</v>
       </c>
       <c r="F3">
         <v>16000</v>
       </c>
       <c r="G3">
+        <v>740</v>
+      </c>
+      <c r="H3">
+        <v>185</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>-30.31906127929688</v>
+      </c>
+      <c r="K3">
+        <v>12.83429527282715</v>
+      </c>
+      <c r="L3">
+        <v>-0.9023116827011108</v>
+      </c>
+      <c r="M3">
+        <v>1.947715163230896</v>
+      </c>
+      <c r="N3">
+        <v>-0.1952996999025345</v>
+      </c>
+      <c r="O3">
+        <v>0.7937342524528503</v>
+      </c>
+      <c r="P3">
+        <v>-0.08877556771039963</v>
+      </c>
+      <c r="Q3">
+        <v>0.5271660089492798</v>
+      </c>
+      <c r="R3">
+        <v>-0.1903693377971649</v>
+      </c>
+      <c r="S3">
+        <v>0.4636359512805939</v>
+      </c>
+      <c r="T3">
+        <v>-0.2151082158088684</v>
+      </c>
+      <c r="U3">
+        <v>0.3288633525371552</v>
+      </c>
+      <c r="V3">
+        <v>-0.2295108437538147</v>
+      </c>
+      <c r="W3">
+        <v>7032.978515625</v>
+      </c>
+      <c r="X3">
+        <v>1199.450927734375</v>
+      </c>
+      <c r="Y3">
+        <v>97.14534759521484</v>
+      </c>
+      <c r="Z3">
+        <v>69.33264923095703</v>
+      </c>
+      <c r="AA3">
+        <v>32.54061126708984</v>
+      </c>
+      <c r="AB3">
+        <v>24.19440078735352</v>
+      </c>
+      <c r="AC3">
+        <v>18.94236755371094</v>
+      </c>
+      <c r="AD3">
+        <v>16.60146903991699</v>
+      </c>
+      <c r="AE3">
+        <v>14.02935600280762</v>
+      </c>
+      <c r="AF3">
+        <v>12.51487064361572</v>
+      </c>
+      <c r="AG3">
+        <v>9.995505332946777</v>
+      </c>
+      <c r="AH3">
+        <v>9.502580642700195</v>
+      </c>
+      <c r="AI3">
+        <v>8.64002513885498</v>
+      </c>
+      <c r="AJ3">
+        <v>-7.093326568603516</v>
+      </c>
+      <c r="AK3">
+        <v>6.64659309387207</v>
+      </c>
+      <c r="AL3">
+        <v>-3.06047534942627</v>
+      </c>
+      <c r="AM3">
+        <v>7.605891704559326</v>
+      </c>
+      <c r="AN3">
+        <v>-1.067789793014526</v>
+      </c>
+      <c r="AO3">
+        <v>7.050544738769531</v>
+      </c>
+      <c r="AP3">
+        <v>-1.885757803916931</v>
+      </c>
+      <c r="AQ3">
+        <v>4.56265926361084</v>
+      </c>
+      <c r="AR3">
+        <v>1.426723718643188</v>
+      </c>
+      <c r="AS3">
+        <v>6.353707313537598</v>
+      </c>
+      <c r="AT3">
+        <v>1.523586869239807</v>
+      </c>
+      <c r="AU3">
+        <v>3.978367805480957</v>
+      </c>
+      <c r="AV3">
+        <v>-1.357490420341492</v>
+      </c>
+      <c r="AW3">
+        <v>90.75412750244141</v>
+      </c>
+      <c r="AX3">
+        <v>82.98576354980469</v>
+      </c>
+      <c r="AY3">
+        <v>108.2283554077148</v>
+      </c>
+      <c r="AZ3">
+        <v>108.5275573730469</v>
+      </c>
+      <c r="BA3">
+        <v>127.0220031738281</v>
+      </c>
+      <c r="BB3">
+        <v>119.6644821166992</v>
+      </c>
+      <c r="BC3">
+        <v>150.4769134521484</v>
+      </c>
+      <c r="BD3">
+        <v>108.3632507324219</v>
+      </c>
+      <c r="BE3">
+        <v>121.079231262207</v>
+      </c>
+      <c r="BF3">
+        <v>124.9209289550781</v>
+      </c>
+      <c r="BG3">
+        <v>137.6529541015625</v>
+      </c>
+      <c r="BH3">
+        <v>114.3678512573242</v>
+      </c>
+      <c r="BI3">
+        <v>132.4550628662109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4">
+        <v>-15.48468971252441</v>
+      </c>
+      <c r="C4">
+        <v>11136.7275390625</v>
+      </c>
+      <c r="D4">
+        <v>-2.933939456939697</v>
+      </c>
+      <c r="E4">
+        <v>10.80253887176514</v>
+      </c>
+      <c r="F4">
+        <v>16000</v>
+      </c>
+      <c r="G4">
+        <v>73080</v>
+      </c>
+      <c r="H4">
+        <v>540</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>-337.8154602050781</v>
+      </c>
+      <c r="K4">
+        <v>104.1961212158203</v>
+      </c>
+      <c r="L4">
+        <v>0.7222388982772827</v>
+      </c>
+      <c r="M4">
+        <v>26.00323867797852</v>
+      </c>
+      <c r="N4">
+        <v>8.475502014160156</v>
+      </c>
+      <c r="O4">
+        <v>8.963638305664062</v>
+      </c>
+      <c r="P4">
+        <v>-2.946717977523804</v>
+      </c>
+      <c r="Q4">
+        <v>4.347993850708008</v>
+      </c>
+      <c r="R4">
+        <v>-7.776777267456055</v>
+      </c>
+      <c r="S4">
+        <v>2.764060974121094</v>
+      </c>
+      <c r="T4">
+        <v>-5.716464519500732</v>
+      </c>
+      <c r="U4">
+        <v>1.462346076965332</v>
+      </c>
+      <c r="V4">
+        <v>-3.980679273605347</v>
+      </c>
+      <c r="W4">
+        <v>13600.322265625</v>
+      </c>
+      <c r="X4">
+        <v>3701.513427734375</v>
+      </c>
+      <c r="Y4">
+        <v>1181.75244140625</v>
+      </c>
+      <c r="Z4">
+        <v>727.2908935546875</v>
+      </c>
+      <c r="AA4">
+        <v>578.2982788085938</v>
+      </c>
+      <c r="AB4">
+        <v>484.3579711914062</v>
+      </c>
+      <c r="AC4">
+        <v>297.9299011230469</v>
+      </c>
+      <c r="AD4">
+        <v>327.7594909667969</v>
+      </c>
+      <c r="AE4">
+        <v>249.6172637939453</v>
+      </c>
+      <c r="AF4">
+        <v>226.1999664306641</v>
+      </c>
+      <c r="AG4">
+        <v>178.5559844970703</v>
+      </c>
+      <c r="AH4">
+        <v>143.3257751464844</v>
+      </c>
+      <c r="AI4">
+        <v>121.6827163696289</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.8355725407600403</v>
+      </c>
+      <c r="AK4">
+        <v>-0.7101614475250244</v>
+      </c>
+      <c r="AL4">
+        <v>-0.1730104833841324</v>
+      </c>
+      <c r="AM4">
+        <v>0.7576941847801208</v>
+      </c>
+      <c r="AN4">
+        <v>-0.02098319493234158</v>
+      </c>
+      <c r="AO4">
+        <v>-0.1821058839559555</v>
+      </c>
+      <c r="AP4">
+        <v>-0.5509873032569885</v>
+      </c>
+      <c r="AQ4">
+        <v>-0.3048744201660156</v>
+      </c>
+      <c r="AR4">
+        <v>-0.3368790745735168</v>
+      </c>
+      <c r="AS4">
+        <v>-0.1953853368759155</v>
+      </c>
+      <c r="AT4">
+        <v>-0.3865920305252075</v>
+      </c>
+      <c r="AU4">
+        <v>-0.3051134943962097</v>
+      </c>
+      <c r="AV4">
+        <v>-0.2324479967355728</v>
+      </c>
+      <c r="AW4">
+        <v>0.1924787163734436</v>
+      </c>
+      <c r="AX4">
+        <v>0.2071104198694229</v>
+      </c>
+      <c r="AY4">
+        <v>0.3687868416309357</v>
+      </c>
+      <c r="AZ4">
+        <v>1.370694398880005</v>
+      </c>
+      <c r="BA4">
+        <v>1.119711399078369</v>
+      </c>
+      <c r="BB4">
+        <v>0.7306111454963684</v>
+      </c>
+      <c r="BC4">
+        <v>1.253080487251282</v>
+      </c>
+      <c r="BD4">
+        <v>0.6266072988510132</v>
+      </c>
+      <c r="BE4">
+        <v>0.28148552775383</v>
+      </c>
+      <c r="BF4">
+        <v>0.6188408136367798</v>
+      </c>
+      <c r="BG4">
+        <v>0.4479553401470184</v>
+      </c>
+      <c r="BH4">
+        <v>0.9613271951675415</v>
+      </c>
+      <c r="BI4">
+        <v>0.9965091943740845</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5">
+        <v>0.3107312321662903</v>
+      </c>
+      <c r="C5">
+        <v>2832.380859375</v>
+      </c>
+      <c r="D5">
+        <v>-2.52111554145813</v>
+      </c>
+      <c r="E5">
+        <v>15.95810699462891</v>
+      </c>
+      <c r="F5">
+        <v>16000</v>
+      </c>
+      <c r="G5">
+        <v>939</v>
+      </c>
+      <c r="H5">
+        <v>474</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>-116.6746368408203</v>
+      </c>
+      <c r="K5">
+        <v>88.10540771484375</v>
+      </c>
+      <c r="L5">
+        <v>-1.111420512199402</v>
+      </c>
+      <c r="M5">
+        <v>30.85548210144043</v>
+      </c>
+      <c r="N5">
+        <v>3.225934028625488</v>
+      </c>
+      <c r="O5">
+        <v>7.236984252929688</v>
+      </c>
+      <c r="P5">
+        <v>-4.436047554016113</v>
+      </c>
+      <c r="Q5">
+        <v>7.923449516296387</v>
+      </c>
+      <c r="R5">
+        <v>-2.553539037704468</v>
+      </c>
+      <c r="S5">
+        <v>-0.3461272716522217</v>
+      </c>
+      <c r="T5">
+        <v>-4.693943500518799</v>
+      </c>
+      <c r="U5">
+        <v>4.526544094085693</v>
+      </c>
+      <c r="V5">
+        <v>-8.018606185913086</v>
+      </c>
+      <c r="W5">
+        <v>10505.0068359375</v>
+      </c>
+      <c r="X5">
+        <v>1447.564331054688</v>
+      </c>
+      <c r="Y5">
+        <v>673.2706909179688</v>
+      </c>
+      <c r="Z5">
+        <v>352.0634155273438</v>
+      </c>
+      <c r="AA5">
+        <v>252.2506713867188</v>
+      </c>
+      <c r="AB5">
+        <v>195.7994689941406</v>
+      </c>
+      <c r="AC5">
+        <v>135.0847778320312</v>
+      </c>
+      <c r="AD5">
+        <v>155.0602722167969</v>
+      </c>
+      <c r="AE5">
+        <v>105.5524139404297</v>
+      </c>
+      <c r="AF5">
+        <v>142.9147796630859</v>
+      </c>
+      <c r="AG5">
+        <v>83.61580657958984</v>
+      </c>
+      <c r="AH5">
+        <v>98.73324584960938</v>
+      </c>
+      <c r="AI5">
+        <v>79.39701843261719</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.7334967255592346</v>
+      </c>
+      <c r="AK5">
+        <v>0.3893066942691803</v>
+      </c>
+      <c r="AL5">
+        <v>0.06978713721036911</v>
+      </c>
+      <c r="AM5">
+        <v>-0.01454265881329775</v>
+      </c>
+      <c r="AN5">
+        <v>-0.02496699802577496</v>
+      </c>
+      <c r="AO5">
+        <v>-0.398320347070694</v>
+      </c>
+      <c r="AP5">
+        <v>-0.2183746844530106</v>
+      </c>
+      <c r="AQ5">
+        <v>-0.1734746694564819</v>
+      </c>
+      <c r="AR5">
+        <v>0.0525159165263176</v>
+      </c>
+      <c r="AS5">
+        <v>-0.6196574568748474</v>
+      </c>
+      <c r="AT5">
+        <v>0.0944797471165657</v>
+      </c>
+      <c r="AU5">
+        <v>0.04129744693636894</v>
+      </c>
+      <c r="AV5">
+        <v>-0.06913425028324127</v>
+      </c>
+      <c r="AW5">
+        <v>0.7011895179748535</v>
+      </c>
+      <c r="AX5">
+        <v>0.5614842772483826</v>
+      </c>
+      <c r="AY5">
+        <v>0.6589948534965515</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5632161498069763</v>
+      </c>
+      <c r="BA5">
+        <v>1.208259224891663</v>
+      </c>
+      <c r="BB5">
+        <v>0.8631548881530762</v>
+      </c>
+      <c r="BC5">
+        <v>0.6455627679824829</v>
+      </c>
+      <c r="BD5">
+        <v>0.9886975288391113</v>
+      </c>
+      <c r="BE5">
+        <v>0.6325638294219971</v>
+      </c>
+      <c r="BF5">
+        <v>1.377004146575928</v>
+      </c>
+      <c r="BG5">
+        <v>0.8964983820915222</v>
+      </c>
+      <c r="BH5">
+        <v>0.8516082167625427</v>
+      </c>
+      <c r="BI5">
+        <v>0.7260932922363281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61">
+      <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6">
+        <v>-5.187178134918213</v>
+      </c>
+      <c r="C6">
+        <v>2439.79833984375</v>
+      </c>
+      <c r="D6">
+        <v>-5.921168327331543</v>
+      </c>
+      <c r="E6">
+        <v>48.80092620849609</v>
+      </c>
+      <c r="F6">
+        <v>16000</v>
+      </c>
+      <c r="G6">
         <v>976</v>
       </c>
-      <c r="H3">
+      <c r="H6">
         <v>200</v>
       </c>
-      <c r="I3">
+      <c r="I6">
         <v>3</v>
       </c>
-      <c r="J3">
+      <c r="J6">
         <v>-83.01690673828125</v>
       </c>
-      <c r="K3">
+      <c r="K6">
         <v>23.02519035339355</v>
       </c>
-      <c r="L3">
+      <c r="L6">
         <v>1.281852126121521</v>
       </c>
-      <c r="M3">
+      <c r="M6">
         <v>7.189151763916016</v>
       </c>
-      <c r="N3">
+      <c r="N6">
         <v>-1.412479519844055</v>
       </c>
-      <c r="O3">
+      <c r="O6">
         <v>-1.505211710929871</v>
       </c>
-      <c r="P3">
+      <c r="P6">
         <v>-3.788246154785156</v>
       </c>
-      <c r="Q3">
+      <c r="Q6">
         <v>-1.310200333595276</v>
       </c>
-      <c r="R3">
+      <c r="R6">
         <v>-2.795704364776611</v>
       </c>
-      <c r="S3">
+      <c r="S6">
         <v>-1.088527917861938</v>
       </c>
-      <c r="T3">
+      <c r="T6">
         <v>-2.036353349685669</v>
       </c>
-      <c r="U3">
+      <c r="U6">
         <v>-0.4716983139514923</v>
       </c>
-      <c r="V3">
+      <c r="V6">
         <v>-1.5041823387146</v>
       </c>
-      <c r="W3">
+      <c r="W6">
         <v>7356.1376953125</v>
       </c>
-      <c r="X3">
+      <c r="X6">
         <v>1293.49609375</v>
       </c>
-      <c r="Y3">
+      <c r="Y6">
         <v>411.4866638183594</v>
       </c>
-      <c r="Z3">
+      <c r="Z6">
         <v>321.1640930175781</v>
       </c>
-      <c r="AA3">
+      <c r="AA6">
         <v>177.0852661132812</v>
       </c>
-      <c r="AB3">
+      <c r="AB6">
         <v>132.5073699951172</v>
       </c>
-      <c r="AC3">
+      <c r="AC6">
         <v>113.1301956176758</v>
       </c>
-      <c r="AD3">
+      <c r="AD6">
         <v>85.62179565429688</v>
       </c>
-      <c r="AE3">
+      <c r="AE6">
         <v>73.6739501953125</v>
       </c>
-      <c r="AF3">
+      <c r="AF6">
         <v>56.71994018554688</v>
       </c>
-      <c r="AG3">
+      <c r="AG6">
         <v>45.7271614074707</v>
       </c>
-      <c r="AH3">
+      <c r="AH6">
         <v>39.68042755126953</v>
       </c>
-      <c r="AI3">
+      <c r="AI6">
         <v>38.06981658935547</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ6">
         <v>-10.66671562194824</v>
       </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>0</v>
-      </c>
-      <c r="AW3">
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
         <v>224.3012390136719</v>
       </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-      <c r="AZ3">
-        <v>0</v>
-      </c>
-      <c r="BA3">
-        <v>0</v>
-      </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
-        <v>0</v>
-      </c>
-      <c r="BD3">
-        <v>0</v>
-      </c>
-      <c r="BE3">
-        <v>0</v>
-      </c>
-      <c r="BF3">
-        <v>0</v>
-      </c>
-      <c r="BG3">
-        <v>0</v>
-      </c>
-      <c r="BH3">
-        <v>0</v>
-      </c>
-      <c r="BI3">
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:61">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7">
+        <v>-10.62265014648438</v>
+      </c>
+      <c r="C7">
+        <v>5484.3525390625</v>
+      </c>
+      <c r="D7">
+        <v>-5.107744693756104</v>
+      </c>
+      <c r="E7">
+        <v>32.9004020690918</v>
+      </c>
+      <c r="F7">
+        <v>16000</v>
+      </c>
+      <c r="G7">
+        <v>199</v>
+      </c>
+      <c r="H7">
+        <v>597</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>-161.4671783447266</v>
+      </c>
+      <c r="K7">
+        <v>37.96165466308594</v>
+      </c>
+      <c r="L7">
+        <v>-0.6215153932571411</v>
+      </c>
+      <c r="M7">
+        <v>10.72541332244873</v>
+      </c>
+      <c r="N7">
+        <v>-2.531129598617554</v>
+      </c>
+      <c r="O7">
+        <v>-0.3652325570583344</v>
+      </c>
+      <c r="P7">
+        <v>-6.188005924224854</v>
+      </c>
+      <c r="Q7">
+        <v>-2.584086894989014</v>
+      </c>
+      <c r="R7">
+        <v>-3.519933938980103</v>
+      </c>
+      <c r="S7">
+        <v>-2.028983116149902</v>
+      </c>
+      <c r="T7">
+        <v>-3.507624864578247</v>
+      </c>
+      <c r="U7">
+        <v>-1.560661196708679</v>
+      </c>
+      <c r="V7">
+        <v>-2.407162427902222</v>
+      </c>
+      <c r="W7">
+        <v>15433.1435546875</v>
+      </c>
+      <c r="X7">
+        <v>2273.78857421875</v>
+      </c>
+      <c r="Y7">
+        <v>578.6896362304688</v>
+      </c>
+      <c r="Z7">
+        <v>517.41064453125</v>
+      </c>
+      <c r="AA7">
+        <v>346.9017639160156</v>
+      </c>
+      <c r="AB7">
+        <v>169.1961975097656</v>
+      </c>
+      <c r="AC7">
+        <v>216.1850433349609</v>
+      </c>
+      <c r="AD7">
+        <v>129.5334320068359</v>
+      </c>
+      <c r="AE7">
+        <v>111.7381820678711</v>
+      </c>
+      <c r="AF7">
+        <v>107.8816909790039</v>
+      </c>
+      <c r="AG7">
+        <v>94.29591369628906</v>
+      </c>
+      <c r="AH7">
+        <v>67.08189392089844</v>
+      </c>
+      <c r="AI7">
+        <v>73.57906341552734</v>
+      </c>
+      <c r="AJ7">
+        <v>-5.687476634979248</v>
+      </c>
+      <c r="AK7">
+        <v>5.354091167449951</v>
+      </c>
+      <c r="AL7">
+        <v>-2.926734447479248</v>
+      </c>
+      <c r="AM7">
+        <v>3.6833336353302</v>
+      </c>
+      <c r="AN7">
+        <v>-5.202929973602295</v>
+      </c>
+      <c r="AO7">
+        <v>-1.751052737236023</v>
+      </c>
+      <c r="AP7">
+        <v>-5.605964183807373</v>
+      </c>
+      <c r="AQ7">
+        <v>-1.326889157295227</v>
+      </c>
+      <c r="AR7">
+        <v>-3.895045518875122</v>
+      </c>
+      <c r="AS7">
+        <v>-2.938568592071533</v>
+      </c>
+      <c r="AT7">
+        <v>-5.547582149505615</v>
+      </c>
+      <c r="AU7">
+        <v>-4.588551044464111</v>
+      </c>
+      <c r="AV7">
+        <v>-1.638497233390808</v>
+      </c>
+      <c r="AW7">
+        <v>89.85777282714844</v>
+      </c>
+      <c r="AX7">
+        <v>104.743034362793</v>
+      </c>
+      <c r="AY7">
+        <v>118.3733673095703</v>
+      </c>
+      <c r="AZ7">
+        <v>121.6591339111328</v>
+      </c>
+      <c r="BA7">
+        <v>119.8098526000977</v>
+      </c>
+      <c r="BB7">
+        <v>110.5493240356445</v>
+      </c>
+      <c r="BC7">
+        <v>100.0019760131836</v>
+      </c>
+      <c r="BD7">
+        <v>116.2557678222656</v>
+      </c>
+      <c r="BE7">
+        <v>117.6351165771484</v>
+      </c>
+      <c r="BF7">
+        <v>120.6692581176758</v>
+      </c>
+      <c r="BG7">
+        <v>122.5520172119141</v>
+      </c>
+      <c r="BH7">
+        <v>118.2767868041992</v>
+      </c>
+      <c r="BI7">
+        <v>125.1787796020508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8">
+        <v>-4.065572261810303</v>
+      </c>
+      <c r="C8">
+        <v>3596.82421875</v>
+      </c>
+      <c r="D8">
+        <v>-5.801528453826904</v>
+      </c>
+      <c r="E8">
+        <v>56.05028533935547</v>
+      </c>
+      <c r="F8">
+        <v>16000</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>-79.00743103027344</v>
+      </c>
+      <c r="K8">
+        <v>36.58897399902344</v>
+      </c>
+      <c r="L8">
+        <v>-7.690456867218018</v>
+      </c>
+      <c r="M8">
+        <v>2.791257619857788</v>
+      </c>
+      <c r="N8">
+        <v>8.257226943969727</v>
+      </c>
+      <c r="O8">
+        <v>-4.957287311553955</v>
+      </c>
+      <c r="P8">
+        <v>-1.389868378639221</v>
+      </c>
+      <c r="Q8">
+        <v>2.010074615478516</v>
+      </c>
+      <c r="R8">
+        <v>-4.719215393066406</v>
+      </c>
+      <c r="S8">
+        <v>-1.562555193901062</v>
+      </c>
+      <c r="T8">
+        <v>1.382869362831116</v>
+      </c>
+      <c r="U8">
+        <v>-3.26076078414917</v>
+      </c>
+      <c r="V8">
+        <v>-1.295270919799805</v>
+      </c>
+      <c r="W8">
+        <v>7236.10107421875</v>
+      </c>
+      <c r="X8">
+        <v>1461.279541015625</v>
+      </c>
+      <c r="Y8">
+        <v>283.7869567871094</v>
+      </c>
+      <c r="Z8">
+        <v>108.6924438476562</v>
+      </c>
+      <c r="AA8">
+        <v>163.3271331787109</v>
+      </c>
+      <c r="AB8">
+        <v>97.51056671142578</v>
+      </c>
+      <c r="AC8">
+        <v>45.42763900756836</v>
+      </c>
+      <c r="AD8">
+        <v>41.83385467529297</v>
+      </c>
+      <c r="AE8">
+        <v>55.40635299682617</v>
+      </c>
+      <c r="AF8">
+        <v>20.44606399536133</v>
+      </c>
+      <c r="AG8">
+        <v>20.63826751708984</v>
+      </c>
+      <c r="AH8">
+        <v>30.22905349731445</v>
+      </c>
+      <c r="AI8">
+        <v>15.33212852478027</v>
+      </c>
+      <c r="AJ8">
+        <v>-20.67868423461914</v>
+      </c>
+      <c r="AK8">
+        <v>21.09808349609375</v>
+      </c>
+      <c r="AL8">
+        <v>-21.90783882141113</v>
+      </c>
+      <c r="AM8">
+        <v>10.94481658935547</v>
+      </c>
+      <c r="AN8">
+        <v>21.6119270324707</v>
+      </c>
+      <c r="AO8">
+        <v>-22.36296463012695</v>
+      </c>
+      <c r="AP8">
+        <v>-2.529174089431763</v>
+      </c>
+      <c r="AQ8">
+        <v>22.2717456817627</v>
+      </c>
+      <c r="AR8">
+        <v>-21.30341339111328</v>
+      </c>
+      <c r="AS8">
+        <v>-2.197834730148315</v>
+      </c>
+      <c r="AT8">
+        <v>21.58152389526367</v>
+      </c>
+      <c r="AU8">
+        <v>-22.1726245880127</v>
+      </c>
+      <c r="AV8">
+        <v>-18.55057334899902</v>
+      </c>
+      <c r="AW8">
+        <v>636.4254760742188</v>
+      </c>
+      <c r="AX8">
+        <v>670.16162109375</v>
+      </c>
+      <c r="AY8">
+        <v>722.8894653320312</v>
+      </c>
+      <c r="AZ8">
+        <v>867.8762817382812</v>
+      </c>
+      <c r="BA8">
+        <v>696.3728637695312</v>
+      </c>
+      <c r="BB8">
+        <v>747.5972900390625</v>
+      </c>
+      <c r="BC8">
+        <v>922.5245971679688</v>
+      </c>
+      <c r="BD8">
+        <v>801.772705078125</v>
+      </c>
+      <c r="BE8">
+        <v>795.8580932617188</v>
+      </c>
+      <c r="BF8">
+        <v>942.1280517578125</v>
+      </c>
+      <c r="BG8">
+        <v>747.7708129882812</v>
+      </c>
+      <c r="BH8">
+        <v>741.463623046875</v>
+      </c>
+      <c r="BI8">
+        <v>971.9283447265625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>-6.994679927825928</v>
+      </c>
+      <c r="C9">
+        <v>5713.4072265625</v>
+      </c>
+      <c r="D9">
+        <v>-2.494913339614868</v>
+      </c>
+      <c r="E9">
+        <v>10.49023532867432</v>
+      </c>
+      <c r="F9">
+        <v>16000</v>
+      </c>
+      <c r="G9">
+        <v>102</v>
+      </c>
+      <c r="H9">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>-219.3202056884766</v>
+      </c>
+      <c r="K9">
+        <v>105.4159317016602</v>
+      </c>
+      <c r="L9">
+        <v>-12.84876823425293</v>
+      </c>
+      <c r="M9">
+        <v>24.6129093170166</v>
+      </c>
+      <c r="N9">
+        <v>11.27205657958984</v>
+      </c>
+      <c r="O9">
+        <v>6.421768188476562</v>
+      </c>
+      <c r="P9">
+        <v>-4.346039295196533</v>
+      </c>
+      <c r="Q9">
+        <v>4.009972095489502</v>
+      </c>
+      <c r="R9">
+        <v>-5.112358093261719</v>
+      </c>
+      <c r="S9">
+        <v>1.546180963516235</v>
+      </c>
+      <c r="T9">
+        <v>-2.513149499893188</v>
+      </c>
+      <c r="U9">
+        <v>1.818830966949463</v>
+      </c>
+      <c r="V9">
+        <v>-1.887943148612976</v>
+      </c>
+      <c r="W9">
+        <v>9547.3154296875</v>
+      </c>
+      <c r="X9">
+        <v>2086.683349609375</v>
+      </c>
+      <c r="Y9">
+        <v>1119.744995117188</v>
+      </c>
+      <c r="Z9">
+        <v>361.0731811523438</v>
+      </c>
+      <c r="AA9">
+        <v>395.5521850585938</v>
+      </c>
+      <c r="AB9">
+        <v>260.70654296875</v>
+      </c>
+      <c r="AC9">
+        <v>187.1605072021484</v>
+      </c>
+      <c r="AD9">
+        <v>143.9011840820312</v>
+      </c>
+      <c r="AE9">
+        <v>139.5198059082031</v>
+      </c>
+      <c r="AF9">
+        <v>103.7500457763672</v>
+      </c>
+      <c r="AG9">
+        <v>105.359375</v>
+      </c>
+      <c r="AH9">
+        <v>84.31001281738281</v>
+      </c>
+      <c r="AI9">
+        <v>74.81012725830078</v>
+      </c>
+      <c r="AJ9">
+        <v>-0.5381720066070557</v>
+      </c>
+      <c r="AK9">
+        <v>-0.2693037688732147</v>
+      </c>
+      <c r="AL9">
+        <v>-0.07252869755029678</v>
+      </c>
+      <c r="AM9">
+        <v>0.2550032138824463</v>
+      </c>
+      <c r="AN9">
+        <v>0.4039515256881714</v>
+      </c>
+      <c r="AO9">
+        <v>-0.4907324612140656</v>
+      </c>
+      <c r="AP9">
+        <v>-0.2356649786233902</v>
+      </c>
+      <c r="AQ9">
+        <v>-0.03435626626014709</v>
+      </c>
+      <c r="AR9">
+        <v>-0.3618600368499756</v>
+      </c>
+      <c r="AS9">
+        <v>-0.304425060749054</v>
+      </c>
+      <c r="AT9">
+        <v>-0.07285278290510178</v>
+      </c>
+      <c r="AU9">
+        <v>-0.01921332441270351</v>
+      </c>
+      <c r="AV9">
+        <v>0.03357544541358948</v>
+      </c>
+      <c r="AW9">
+        <v>0.3843357563018799</v>
+      </c>
+      <c r="AX9">
+        <v>0.4667282700538635</v>
+      </c>
+      <c r="AY9">
+        <v>-0.5254048705101013</v>
+      </c>
+      <c r="AZ9">
+        <v>0.5961581468582153</v>
+      </c>
+      <c r="BA9">
+        <v>0.677682101726532</v>
+      </c>
+      <c r="BB9">
+        <v>0.7243542671203613</v>
+      </c>
+      <c r="BC9">
+        <v>0.6122543215751648</v>
+      </c>
+      <c r="BD9">
+        <v>0.7930469512939453</v>
+      </c>
+      <c r="BE9">
+        <v>0.3641310930252075</v>
+      </c>
+      <c r="BF9">
+        <v>0.4518673419952393</v>
+      </c>
+      <c r="BG9">
+        <v>0.5096930265426636</v>
+      </c>
+      <c r="BH9">
+        <v>0.63271564245224</v>
+      </c>
+      <c r="BI9">
+        <v>0.8286176323890686</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>-1.983783006668091</v>
+      </c>
+      <c r="C10">
+        <v>995.0918579101562</v>
+      </c>
+      <c r="D10">
+        <v>-9.429255485534668</v>
+      </c>
+      <c r="E10">
+        <v>126.2236480712891</v>
+      </c>
+      <c r="F10">
+        <v>16000</v>
+      </c>
+      <c r="G10">
+        <v>3000</v>
+      </c>
+      <c r="H10">
+        <v>3000</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>-32.87264251708984</v>
+      </c>
+      <c r="K10">
+        <v>11.10170936584473</v>
+      </c>
+      <c r="L10">
+        <v>-0.5136178135871887</v>
+      </c>
+      <c r="M10">
+        <v>2.168940782546997</v>
+      </c>
+      <c r="N10">
+        <v>-0.6290632486343384</v>
+      </c>
+      <c r="O10">
+        <v>-0.6887359619140625</v>
+      </c>
+      <c r="P10">
+        <v>-1.342710614204407</v>
+      </c>
+      <c r="Q10">
+        <v>-0.6068252325057983</v>
+      </c>
+      <c r="R10">
+        <v>-0.7121346592903137</v>
+      </c>
+      <c r="S10">
+        <v>-0.4056261777877808</v>
+      </c>
+      <c r="T10">
+        <v>-0.456999659538269</v>
+      </c>
+      <c r="U10">
+        <v>-0.4211823642253876</v>
+      </c>
+      <c r="V10">
+        <v>-0.4102921783924103</v>
+      </c>
+      <c r="W10">
+        <v>4403.30322265625</v>
+      </c>
+      <c r="X10">
+        <v>616.7998657226562</v>
+      </c>
+      <c r="Y10">
+        <v>177.88525390625</v>
+      </c>
+      <c r="Z10">
+        <v>99.02947998046875</v>
+      </c>
+      <c r="AA10">
+        <v>64.52204895019531</v>
+      </c>
+      <c r="AB10">
+        <v>41.41153335571289</v>
+      </c>
+      <c r="AC10">
+        <v>36.05556488037109</v>
+      </c>
+      <c r="AD10">
+        <v>27.31575775146484</v>
+      </c>
+      <c r="AE10">
+        <v>22.41230010986328</v>
+      </c>
+      <c r="AF10">
+        <v>18.9544506072998</v>
+      </c>
+      <c r="AG10">
+        <v>15.23534202575684</v>
+      </c>
+      <c r="AH10">
+        <v>13.59801578521729</v>
+      </c>
+      <c r="AI10">
+        <v>13.36688709259033</v>
+      </c>
+      <c r="AJ10">
+        <v>-26.60997200012207</v>
+      </c>
+      <c r="AK10">
+        <v>25.4793643951416</v>
+      </c>
+      <c r="AL10">
+        <v>-4.208809375762939</v>
+      </c>
+      <c r="AM10">
+        <v>22.61742401123047</v>
+      </c>
+      <c r="AN10">
+        <v>-7.398554801940918</v>
+      </c>
+      <c r="AO10">
+        <v>-16.23892593383789</v>
+      </c>
+      <c r="AP10">
+        <v>-24.08403587341309</v>
+      </c>
+      <c r="AQ10">
+        <v>-22.73896217346191</v>
+      </c>
+      <c r="AR10">
+        <v>-22.70495223999023</v>
+      </c>
+      <c r="AS10">
+        <v>-21.18689346313477</v>
+      </c>
+      <c r="AT10">
+        <v>-14.65041542053223</v>
+      </c>
+      <c r="AU10">
+        <v>-16.34467315673828</v>
+      </c>
+      <c r="AV10">
+        <v>-8.160361289978027</v>
+      </c>
+      <c r="AW10">
+        <v>1310.3037109375</v>
+      </c>
+      <c r="AX10">
+        <v>1188.447509765625</v>
+      </c>
+      <c r="AY10">
+        <v>1571.276489257812</v>
+      </c>
+      <c r="AZ10">
+        <v>1548.093017578125</v>
+      </c>
+      <c r="BA10">
+        <v>1560.88037109375</v>
+      </c>
+      <c r="BB10">
+        <v>1621.156860351562</v>
+      </c>
+      <c r="BC10">
+        <v>1616.417602539062</v>
+      </c>
+      <c r="BD10">
+        <v>1606.308959960938</v>
+      </c>
+      <c r="BE10">
+        <v>1540.45263671875</v>
+      </c>
+      <c r="BF10">
+        <v>1601.744873046875</v>
+      </c>
+      <c r="BG10">
+        <v>1578.297973632812</v>
+      </c>
+      <c r="BH10">
+        <v>1587.983642578125</v>
+      </c>
+      <c r="BI10">
+        <v>1596.908203125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>-3.509562015533447</v>
+      </c>
+      <c r="C11">
+        <v>2435.064453125</v>
+      </c>
+      <c r="D11">
+        <v>-6.362421989440918</v>
+      </c>
+      <c r="E11">
+        <v>59.21068954467773</v>
+      </c>
+      <c r="F11">
+        <v>22050</v>
+      </c>
+      <c r="G11">
+        <v>2096</v>
+      </c>
+      <c r="H11">
+        <v>524</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>-71.02581787109375</v>
+      </c>
+      <c r="K11">
+        <v>23.95101356506348</v>
+      </c>
+      <c r="L11">
+        <v>-5.281101226806641</v>
+      </c>
+      <c r="M11">
+        <v>9.122183799743652</v>
+      </c>
+      <c r="N11">
+        <v>-1.030394077301025</v>
+      </c>
+      <c r="O11">
+        <v>3.165115356445312</v>
+      </c>
+      <c r="P11">
+        <v>-1.347409605979919</v>
+      </c>
+      <c r="Q11">
+        <v>0.1620380729436874</v>
+      </c>
+      <c r="R11">
+        <v>-1.737101554870605</v>
+      </c>
+      <c r="S11">
+        <v>-0.8818259239196777</v>
+      </c>
+      <c r="T11">
+        <v>0.05727183073759079</v>
+      </c>
+      <c r="U11">
+        <v>-1.372291922569275</v>
+      </c>
+      <c r="V11">
+        <v>0.5940080285072327</v>
+      </c>
+      <c r="W11">
+        <v>10646.578125</v>
+      </c>
+      <c r="X11">
+        <v>1730.433349609375</v>
+      </c>
+      <c r="Y11">
+        <v>404.656982421875</v>
+      </c>
+      <c r="Z11">
+        <v>389.5432434082031</v>
+      </c>
+      <c r="AA11">
+        <v>200.7680358886719</v>
+      </c>
+      <c r="AB11">
+        <v>152.3397521972656</v>
+      </c>
+      <c r="AC11">
+        <v>80.45764923095703</v>
+      </c>
+      <c r="AD11">
+        <v>57.21482849121094</v>
+      </c>
+      <c r="AE11">
+        <v>56.95136642456055</v>
+      </c>
+      <c r="AF11">
+        <v>32.25337600708008</v>
+      </c>
+      <c r="AG11">
+        <v>33.23735427856445</v>
+      </c>
+      <c r="AH11">
+        <v>32.77608489990234</v>
+      </c>
+      <c r="AI11">
+        <v>25.33874702453613</v>
+      </c>
+      <c r="AJ11">
+        <v>-9.183394432067871</v>
+      </c>
+      <c r="AK11">
+        <v>9.504463195800781</v>
+      </c>
+      <c r="AL11">
+        <v>-7.333166122436523</v>
+      </c>
+      <c r="AM11">
+        <v>11.3007869720459</v>
+      </c>
+      <c r="AN11">
+        <v>-1.188830018043518</v>
+      </c>
+      <c r="AO11">
+        <v>8.282055854797363</v>
+      </c>
+      <c r="AP11">
+        <v>-8.978139877319336</v>
+      </c>
+      <c r="AQ11">
+        <v>-6.231266498565674</v>
+      </c>
+      <c r="AR11">
+        <v>-10.026930809021</v>
+      </c>
+      <c r="AS11">
+        <v>-7.823456287384033</v>
+      </c>
+      <c r="AT11">
+        <v>-6.751045703887939</v>
+      </c>
+      <c r="AU11">
+        <v>-9.998387336730957</v>
+      </c>
+      <c r="AV11">
+        <v>-0.5608196258544922</v>
+      </c>
+      <c r="AW11">
+        <v>224.257080078125</v>
+      </c>
+      <c r="AX11">
+        <v>262.91357421875</v>
+      </c>
+      <c r="AY11">
+        <v>342.2391662597656</v>
+      </c>
+      <c r="AZ11">
+        <v>317.9319763183594</v>
+      </c>
+      <c r="BA11">
+        <v>338.5266418457031</v>
+      </c>
+      <c r="BB11">
+        <v>330.4679870605469</v>
+      </c>
+      <c r="BC11">
+        <v>329.019287109375</v>
+      </c>
+      <c r="BD11">
+        <v>361.3294372558594</v>
+      </c>
+      <c r="BE11">
+        <v>327.3956909179688</v>
+      </c>
+      <c r="BF11">
+        <v>328.9629821777344</v>
+      </c>
+      <c r="BG11">
+        <v>327.9765625</v>
+      </c>
+      <c r="BH11">
+        <v>338.0533447265625</v>
+      </c>
+      <c r="BI11">
+        <v>328.9412536621094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <v>1.238155961036682</v>
+      </c>
+      <c r="C12">
+        <v>3819.58984375</v>
+      </c>
+      <c r="D12">
+        <v>-2.825674533843994</v>
+      </c>
+      <c r="E12">
+        <v>17.37648963928223</v>
+      </c>
+      <c r="F12">
+        <v>16000</v>
+      </c>
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="H12">
+        <v>200</v>
+      </c>
+      <c r="I12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>-136.7240905761719</v>
+      </c>
+      <c r="K12">
+        <v>97.77979278564453</v>
+      </c>
+      <c r="L12">
+        <v>-7.927399635314941</v>
+      </c>
+      <c r="M12">
+        <v>35.93622589111328</v>
+      </c>
+      <c r="N12">
+        <v>1.231293559074402</v>
+      </c>
+      <c r="O12">
+        <v>17.06506156921387</v>
+      </c>
+      <c r="P12">
+        <v>-4.358205318450928</v>
+      </c>
+      <c r="Q12">
+        <v>12.22859477996826</v>
+      </c>
+      <c r="R12">
+        <v>-5.821520805358887</v>
+      </c>
+      <c r="S12">
+        <v>8.511797904968262</v>
+      </c>
+      <c r="T12">
+        <v>-4.112175941467285</v>
+      </c>
+      <c r="U12">
+        <v>5.003283977508545</v>
+      </c>
+      <c r="V12">
+        <v>-2.716619491577148</v>
+      </c>
+      <c r="W12">
+        <v>14166.267578125</v>
+      </c>
+      <c r="X12">
+        <v>1710.77685546875</v>
+      </c>
+      <c r="Y12">
+        <v>927.3909912109375</v>
+      </c>
+      <c r="Z12">
+        <v>444.5836486816406</v>
+      </c>
+      <c r="AA12">
+        <v>332.4615783691406</v>
+      </c>
+      <c r="AB12">
+        <v>269.6803283691406</v>
+      </c>
+      <c r="AC12">
+        <v>205.9943542480469</v>
+      </c>
+      <c r="AD12">
+        <v>189.0486907958984</v>
+      </c>
+      <c r="AE12">
+        <v>143.9921875</v>
+      </c>
+      <c r="AF12">
+        <v>132.9167633056641</v>
+      </c>
+      <c r="AG12">
+        <v>111.441520690918</v>
+      </c>
+      <c r="AH12">
+        <v>108.207633972168</v>
+      </c>
+      <c r="AI12">
+        <v>81.29676055908203</v>
+      </c>
+      <c r="AJ12">
+        <v>-1.073018670082092</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>3.298652648925781</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>-15.4286642074585</v>
+      </c>
+      <c r="C13">
+        <v>9719.986328125</v>
+      </c>
+      <c r="D13">
+        <v>-5.091428279876709</v>
+      </c>
+      <c r="E13">
+        <v>28.22573852539062</v>
+      </c>
+      <c r="F13">
+        <v>16000</v>
+      </c>
+      <c r="G13">
+        <v>12652</v>
+      </c>
+      <c r="H13">
+        <v>3164</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>-230.1686706542969</v>
+      </c>
+      <c r="K13">
+        <v>24.63306999206543</v>
+      </c>
+      <c r="L13">
+        <v>-5.983473777770996</v>
+      </c>
+      <c r="M13">
+        <v>15.66055583953857</v>
+      </c>
+      <c r="N13">
+        <v>8.726792335510254</v>
+      </c>
+      <c r="O13">
+        <v>1.536178946495056</v>
+      </c>
+      <c r="P13">
+        <v>-0.2999909520149231</v>
+      </c>
+      <c r="Q13">
+        <v>-0.1753121912479401</v>
+      </c>
+      <c r="R13">
+        <v>-9.004171371459961</v>
+      </c>
+      <c r="S13">
+        <v>0.2882375121116638</v>
+      </c>
+      <c r="T13">
+        <v>-4.364341735839844</v>
+      </c>
+      <c r="U13">
+        <v>-1.825153827667236</v>
+      </c>
+      <c r="V13">
+        <v>0.4036660492420197</v>
+      </c>
+      <c r="W13">
+        <v>16760.7578125</v>
+      </c>
+      <c r="X13">
+        <v>2361.9404296875</v>
+      </c>
+      <c r="Y13">
+        <v>299.8548583984375</v>
+      </c>
+      <c r="Z13">
+        <v>1068.12109375</v>
+      </c>
+      <c r="AA13">
+        <v>823.05078125</v>
+      </c>
+      <c r="AB13">
+        <v>283.9291687011719</v>
+      </c>
+      <c r="AC13">
+        <v>142.5245361328125</v>
+      </c>
+      <c r="AD13">
+        <v>210.5390625</v>
+      </c>
+      <c r="AE13">
+        <v>479.7156066894531</v>
+      </c>
+      <c r="AF13">
+        <v>98.48066711425781</v>
+      </c>
+      <c r="AG13">
+        <v>131.1274719238281</v>
+      </c>
+      <c r="AH13">
+        <v>135.6138916015625</v>
+      </c>
+      <c r="AI13">
+        <v>128.4761505126953</v>
+      </c>
+      <c r="AJ13">
+        <v>-4.174503803253174</v>
+      </c>
+      <c r="AK13">
+        <v>6.613609790802002</v>
+      </c>
+      <c r="AL13">
+        <v>-4.113280773162842</v>
+      </c>
+      <c r="AM13">
+        <v>6.747890472412109</v>
+      </c>
+      <c r="AN13">
+        <v>2.177137613296509</v>
+      </c>
+      <c r="AO13">
+        <v>2.395440340042114</v>
+      </c>
+      <c r="AP13">
+        <v>5.246466159820557</v>
+      </c>
+      <c r="AQ13">
+        <v>2.052461862564087</v>
+      </c>
+      <c r="AR13">
+        <v>-7.449586391448975</v>
+      </c>
+      <c r="AS13">
+        <v>-3.746164083480835</v>
+      </c>
+      <c r="AT13">
+        <v>-6.572026252746582</v>
+      </c>
+      <c r="AU13">
+        <v>4.156852722167969</v>
+      </c>
+      <c r="AV13">
+        <v>-4.394647121429443</v>
+      </c>
+      <c r="AW13">
+        <v>128.0466766357422</v>
+      </c>
+      <c r="AX13">
+        <v>168.765380859375</v>
+      </c>
+      <c r="AY13">
+        <v>204.2538909912109</v>
+      </c>
+      <c r="AZ13">
+        <v>163.3833312988281</v>
+      </c>
+      <c r="BA13">
+        <v>186.7050628662109</v>
+      </c>
+      <c r="BB13">
+        <v>187.7455596923828</v>
+      </c>
+      <c r="BC13">
+        <v>197.5702362060547</v>
+      </c>
+      <c r="BD13">
+        <v>194.1123352050781</v>
+      </c>
+      <c r="BE13">
+        <v>301.5052185058594</v>
+      </c>
+      <c r="BF13">
+        <v>199.5455780029297</v>
+      </c>
+      <c r="BG13">
+        <v>172.4969940185547</v>
+      </c>
+      <c r="BH13">
+        <v>306.3037719726562</v>
+      </c>
+      <c r="BI13">
+        <v>193.1620025634766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:61">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14">
+        <v>-19.50671195983887</v>
+      </c>
+      <c r="C14">
+        <v>10831.4892578125</v>
+      </c>
+      <c r="D14">
+        <v>-3.65717339515686</v>
+      </c>
+      <c r="E14">
+        <v>16.57175254821777</v>
+      </c>
+      <c r="F14">
+        <v>16000</v>
+      </c>
+      <c r="G14">
+        <v>3716</v>
+      </c>
+      <c r="H14">
+        <v>1652</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>-314.0580139160156</v>
+      </c>
+      <c r="K14">
+        <v>81.24227905273438</v>
+      </c>
+      <c r="L14">
+        <v>-16.5211067199707</v>
+      </c>
+      <c r="M14">
+        <v>14.85242080688477</v>
+      </c>
+      <c r="N14">
+        <v>-3.912980079650879</v>
+      </c>
+      <c r="O14">
+        <v>3.554871797561646</v>
+      </c>
+      <c r="P14">
+        <v>-5.237228393554688</v>
+      </c>
+      <c r="Q14">
+        <v>0.0042638941667974</v>
+      </c>
+      <c r="R14">
+        <v>-6.056365489959717</v>
+      </c>
+      <c r="S14">
+        <v>0.6789800524711609</v>
+      </c>
+      <c r="T14">
+        <v>-3.858423948287964</v>
+      </c>
+      <c r="U14">
+        <v>-0.007429168093949556</v>
+      </c>
+      <c r="V14">
+        <v>-4.268541812896729</v>
+      </c>
+      <c r="W14">
+        <v>32151.3515625</v>
+      </c>
+      <c r="X14">
+        <v>3240.17578125</v>
+      </c>
+      <c r="Y14">
+        <v>1482.347534179688</v>
+      </c>
+      <c r="Z14">
+        <v>618.3544921875</v>
+      </c>
+      <c r="AA14">
+        <v>475.1914978027344</v>
+      </c>
+      <c r="AB14">
+        <v>335.432373046875</v>
+      </c>
+      <c r="AC14">
+        <v>276.9146423339844</v>
+      </c>
+      <c r="AD14">
+        <v>227.1508331298828</v>
+      </c>
+      <c r="AE14">
+        <v>215.6967315673828</v>
+      </c>
+      <c r="AF14">
+        <v>146.95947265625</v>
+      </c>
+      <c r="AG14">
+        <v>133.3011016845703</v>
+      </c>
+      <c r="AH14">
+        <v>118.2195434570312</v>
+      </c>
+      <c r="AI14">
+        <v>106.2737045288086</v>
+      </c>
+      <c r="AJ14">
+        <v>-0.2722920477390289</v>
+      </c>
+      <c r="AK14">
+        <v>0.2406276911497116</v>
+      </c>
+      <c r="AL14">
+        <v>-0.7045608162879944</v>
+      </c>
+      <c r="AM14">
+        <v>0.1703846454620361</v>
+      </c>
+      <c r="AN14">
+        <v>-0.3548167049884796</v>
+      </c>
+      <c r="AO14">
+        <v>-0.4095826148986816</v>
+      </c>
+      <c r="AP14">
+        <v>-0.4621357321739197</v>
+      </c>
+      <c r="AQ14">
+        <v>-0.3867700695991516</v>
+      </c>
+      <c r="AR14">
+        <v>-0.3090238571166992</v>
+      </c>
+      <c r="AS14">
+        <v>-0.02553500980138779</v>
+      </c>
+      <c r="AT14">
+        <v>-0.1888143867254257</v>
+      </c>
+      <c r="AU14">
+        <v>-0.148164689540863</v>
+      </c>
+      <c r="AV14">
+        <v>-0.04596336185932159</v>
+      </c>
+      <c r="AW14">
+        <v>-0.02842365577816963</v>
+      </c>
+      <c r="AX14">
+        <v>0.1775472909212112</v>
+      </c>
+      <c r="AY14">
+        <v>0.9141193032264709</v>
+      </c>
+      <c r="AZ14">
+        <v>1.888182878494263</v>
+      </c>
+      <c r="BA14">
+        <v>1.405290961265564</v>
+      </c>
+      <c r="BB14">
+        <v>1.937475800514221</v>
+      </c>
+      <c r="BC14">
+        <v>1.27036452293396</v>
+      </c>
+      <c r="BD14">
+        <v>1.680394172668457</v>
+      </c>
+      <c r="BE14">
+        <v>1.301767826080322</v>
+      </c>
+      <c r="BF14">
+        <v>2.044037818908691</v>
+      </c>
+      <c r="BG14">
+        <v>1.707876205444336</v>
+      </c>
+      <c r="BH14">
+        <v>1.839769721031189</v>
+      </c>
+      <c r="BI14">
+        <v>1.55851137638092</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>-5.056939601898193</v>
+      </c>
+      <c r="C15">
+        <v>3200.548828125</v>
+      </c>
+      <c r="D15">
+        <v>-8.292244911193848</v>
+      </c>
+      <c r="E15">
+        <v>80.49533081054688</v>
+      </c>
+      <c r="F15">
+        <v>16000</v>
+      </c>
+      <c r="G15">
+        <v>9473</v>
+      </c>
+      <c r="H15">
+        <v>1600</v>
+      </c>
+      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <v>-83.32114410400391</v>
+      </c>
+      <c r="K15">
+        <v>14.99065589904785</v>
+      </c>
+      <c r="L15">
+        <v>-1.173361539840698</v>
+      </c>
+      <c r="M15">
+        <v>2.414386510848999</v>
+      </c>
+      <c r="N15">
+        <v>0.08771071583032608</v>
+      </c>
+      <c r="O15">
+        <v>1.267694473266602</v>
+      </c>
+      <c r="P15">
+        <v>-0.2787362635135651</v>
+      </c>
+      <c r="Q15">
+        <v>0.6750504970550537</v>
+      </c>
+      <c r="R15">
+        <v>-0.3617731630802155</v>
+      </c>
+      <c r="S15">
+        <v>0.4642130732536316</v>
+      </c>
+      <c r="T15">
+        <v>-0.4419879615306854</v>
+      </c>
+      <c r="U15">
+        <v>0.3641074895858765</v>
+      </c>
+      <c r="V15">
+        <v>-0.4270278811454773</v>
+      </c>
+      <c r="W15">
+        <v>22481.857421875</v>
+      </c>
+      <c r="X15">
+        <v>1488.778198242188</v>
+      </c>
+      <c r="Y15">
+        <v>365.65087890625</v>
+      </c>
+      <c r="Z15">
+        <v>138.1077270507812</v>
+      </c>
+      <c r="AA15">
+        <v>92.39988708496094</v>
+      </c>
+      <c r="AB15">
+        <v>62.20108032226562</v>
+      </c>
+      <c r="AC15">
+        <v>54.59141540527344</v>
+      </c>
+      <c r="AD15">
+        <v>41.64640426635742</v>
+      </c>
+      <c r="AE15">
+        <v>38.86966705322266</v>
+      </c>
+      <c r="AF15">
+        <v>33.61582183837891</v>
+      </c>
+      <c r="AG15">
+        <v>32.12392807006836</v>
+      </c>
+      <c r="AH15">
+        <v>29.20543479919434</v>
+      </c>
+      <c r="AI15">
+        <v>28.4089527130127</v>
+      </c>
+      <c r="AJ15">
+        <v>-4.147716999053955</v>
+      </c>
+      <c r="AK15">
+        <v>4.49221134185791</v>
+      </c>
+      <c r="AL15">
+        <v>0.6693332195281982</v>
+      </c>
+      <c r="AM15">
+        <v>4.149388790130615</v>
+      </c>
+      <c r="AN15">
+        <v>1.89400041103363</v>
+      </c>
+      <c r="AO15">
+        <v>3.409025430679321</v>
+      </c>
+      <c r="AP15">
+        <v>0.07673179358243942</v>
+      </c>
+      <c r="AQ15">
+        <v>2.139561653137207</v>
+      </c>
+      <c r="AR15">
+        <v>-1.309161901473999</v>
+      </c>
+      <c r="AS15">
+        <v>1.718404769897461</v>
+      </c>
+      <c r="AT15">
+        <v>-1.355220437049866</v>
+      </c>
+      <c r="AU15">
+        <v>0.6805600523948669</v>
+      </c>
+      <c r="AV15">
+        <v>0.2448499351739883</v>
+      </c>
+      <c r="AW15">
+        <v>36.70458602905273</v>
+      </c>
+      <c r="AX15">
+        <v>47.27970123291016</v>
+      </c>
+      <c r="AY15">
+        <v>95.50508880615234</v>
+      </c>
+      <c r="AZ15">
+        <v>73.22499084472656</v>
+      </c>
+      <c r="BA15">
+        <v>121.672248840332</v>
+      </c>
+      <c r="BB15">
+        <v>82.69901275634766</v>
+      </c>
+      <c r="BC15">
+        <v>122.4437713623047</v>
+      </c>
+      <c r="BD15">
+        <v>110.6558380126953</v>
+      </c>
+      <c r="BE15">
+        <v>91.80238342285156</v>
+      </c>
+      <c r="BF15">
+        <v>90.67388153076172</v>
+      </c>
+      <c r="BG15">
+        <v>102.1930999755859</v>
+      </c>
+      <c r="BH15">
+        <v>116.3418579101562</v>
+      </c>
+      <c r="BI15">
+        <v>127.8157272338867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16">
+        <v>-21.84115600585938</v>
+      </c>
+      <c r="C16">
+        <v>22098.5546875</v>
+      </c>
+      <c r="D16">
+        <v>-3.075906038284302</v>
+      </c>
+      <c r="E16">
+        <v>9.247739791870117</v>
+      </c>
+      <c r="F16">
+        <v>44100</v>
+      </c>
+      <c r="G16">
+        <v>1296</v>
+      </c>
+      <c r="H16">
+        <v>324</v>
+      </c>
+      <c r="I16">
+        <v>15</v>
+      </c>
+      <c r="J16">
+        <v>-507.9908447265625</v>
+      </c>
+      <c r="K16">
+        <v>126.4518356323242</v>
+      </c>
+      <c r="L16">
+        <v>-9.24458122253418</v>
+      </c>
+      <c r="M16">
+        <v>38.97196197509766</v>
+      </c>
+      <c r="N16">
+        <v>3.758402585983276</v>
+      </c>
+      <c r="O16">
+        <v>20.59532356262207</v>
+      </c>
+      <c r="P16">
+        <v>10.08059883117676</v>
+      </c>
+      <c r="Q16">
+        <v>7.336459636688232</v>
+      </c>
+      <c r="R16">
+        <v>8.627619743347168</v>
+      </c>
+      <c r="S16">
+        <v>9.413398742675781</v>
+      </c>
+      <c r="T16">
+        <v>0.1523898243904114</v>
+      </c>
+      <c r="U16">
+        <v>5.974236488342285</v>
+      </c>
+      <c r="V16">
+        <v>1.938203454017639</v>
+      </c>
+      <c r="W16">
+        <v>14022.1337890625</v>
+      </c>
+      <c r="X16">
+        <v>1237.915893554688</v>
+      </c>
+      <c r="Y16">
+        <v>797.0099487304688</v>
+      </c>
+      <c r="Z16">
+        <v>211.6291656494141</v>
+      </c>
+      <c r="AA16">
+        <v>229.7058715820312</v>
+      </c>
+      <c r="AB16">
+        <v>102.8570327758789</v>
+      </c>
+      <c r="AC16">
+        <v>103.7160797119141</v>
+      </c>
+      <c r="AD16">
+        <v>64.29589080810547</v>
+      </c>
+      <c r="AE16">
+        <v>78.34172058105469</v>
+      </c>
+      <c r="AF16">
+        <v>51.15146636962891</v>
+      </c>
+      <c r="AG16">
+        <v>57.0620002746582</v>
+      </c>
+      <c r="AH16">
+        <v>34.7960205078125</v>
+      </c>
+      <c r="AI16">
+        <v>42.59058380126953</v>
+      </c>
+      <c r="AJ16">
+        <v>-0.239741787314415</v>
+      </c>
+      <c r="AK16">
+        <v>-1.122025489807129</v>
+      </c>
+      <c r="AL16">
+        <v>0.3155630528926849</v>
+      </c>
+      <c r="AM16">
+        <v>-0.3012543916702271</v>
+      </c>
+      <c r="AN16">
+        <v>0.03463026136159897</v>
+      </c>
+      <c r="AO16">
+        <v>-0.1165990605950356</v>
+      </c>
+      <c r="AP16">
+        <v>0.1150697320699692</v>
+      </c>
+      <c r="AQ16">
+        <v>-0.2112556993961334</v>
+      </c>
+      <c r="AR16">
+        <v>-0.1445860266685486</v>
+      </c>
+      <c r="AS16">
+        <v>0.05688333511352539</v>
+      </c>
+      <c r="AT16">
+        <v>0.1491174697875977</v>
+      </c>
+      <c r="AU16">
+        <v>0.02497636154294014</v>
+      </c>
+      <c r="AV16">
+        <v>0.1171596124768257</v>
+      </c>
+      <c r="AW16">
+        <v>-0.06969089806079865</v>
+      </c>
+      <c r="AX16">
+        <v>2.57041597366333</v>
+      </c>
+      <c r="AY16">
+        <v>-0.07638000696897507</v>
+      </c>
+      <c r="AZ16">
+        <v>0.4529709815979004</v>
+      </c>
+      <c r="BA16">
+        <v>0.09376180171966553</v>
+      </c>
+      <c r="BB16">
+        <v>0.07028567045927048</v>
+      </c>
+      <c r="BC16">
+        <v>0.08131964504718781</v>
+      </c>
+      <c r="BD16">
+        <v>0.4849991500377655</v>
+      </c>
+      <c r="BE16">
+        <v>-0.07534223049879074</v>
+      </c>
+      <c r="BF16">
+        <v>0.2567896544933319</v>
+      </c>
+      <c r="BG16">
+        <v>0.2594720423221588</v>
+      </c>
+      <c r="BH16">
+        <v>0.8954952955245972</v>
+      </c>
+      <c r="BI16">
+        <v>0.2639440596103668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17">
+        <v>-16.58696746826172</v>
+      </c>
+      <c r="C17">
+        <v>10819.0087890625</v>
+      </c>
+      <c r="D17">
+        <v>-4.739275455474854</v>
+      </c>
+      <c r="E17">
+        <v>24.93095970153809</v>
+      </c>
+      <c r="F17">
+        <v>16000</v>
+      </c>
+      <c r="G17">
+        <v>52668</v>
+      </c>
+      <c r="H17">
+        <v>13167</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17">
+        <v>-251.0093841552734</v>
+      </c>
+      <c r="K17">
+        <v>32.72307968139648</v>
+      </c>
+      <c r="L17">
+        <v>-3.670696020126343</v>
+      </c>
+      <c r="M17">
+        <v>15.19152450561523</v>
+      </c>
+      <c r="N17">
+        <v>4.893560409545898</v>
+      </c>
+      <c r="O17">
+        <v>-3.557933568954468</v>
+      </c>
+      <c r="P17">
+        <v>-1.798202276229858</v>
+      </c>
+      <c r="Q17">
+        <v>4.83379077911377</v>
+      </c>
+      <c r="R17">
+        <v>-9.190887451171875</v>
+      </c>
+      <c r="S17">
+        <v>0.6735241413116455</v>
+      </c>
+      <c r="T17">
+        <v>-4.311694145202637</v>
+      </c>
+      <c r="U17">
+        <v>-2.24630069732666</v>
+      </c>
+      <c r="V17">
+        <v>1.839047074317932</v>
+      </c>
+      <c r="W17">
+        <v>16020.587890625</v>
+      </c>
+      <c r="X17">
+        <v>3743.875732421875</v>
+      </c>
+      <c r="Y17">
+        <v>421.2179260253906</v>
+      </c>
+      <c r="Z17">
+        <v>927.1727905273438</v>
+      </c>
+      <c r="AA17">
+        <v>782.4381103515625</v>
+      </c>
+      <c r="AB17">
+        <v>626.3228759765625</v>
+      </c>
+      <c r="AC17">
+        <v>249.6957855224609</v>
+      </c>
+      <c r="AD17">
+        <v>363.6454162597656</v>
+      </c>
+      <c r="AE17">
+        <v>448.9548645019531</v>
+      </c>
+      <c r="AF17">
+        <v>90.45247650146484</v>
+      </c>
+      <c r="AG17">
+        <v>143.9966125488281</v>
+      </c>
+      <c r="AH17">
+        <v>140.3413391113281</v>
+      </c>
+      <c r="AI17">
+        <v>131.4152679443359</v>
+      </c>
+      <c r="AJ17">
+        <v>-3.752220392227173</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
+      <c r="AW17">
+        <v>107.31640625</v>
+      </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18">
+        <v>-21.49627685546875</v>
+      </c>
+      <c r="C18">
+        <v>14131.912109375</v>
+      </c>
+      <c r="D18">
+        <v>-3.988629817962646</v>
+      </c>
+      <c r="E18">
+        <v>17.12546348571777</v>
+      </c>
+      <c r="F18">
+        <v>16000</v>
+      </c>
+      <c r="G18">
+        <v>1472</v>
+      </c>
+      <c r="H18">
+        <v>368</v>
+      </c>
+      <c r="I18">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>-334.8606567382812</v>
+      </c>
+      <c r="K18">
+        <v>43.86664962768555</v>
+      </c>
+      <c r="L18">
+        <v>-4.523938655853271</v>
+      </c>
+      <c r="M18">
+        <v>22.95491409301758</v>
+      </c>
+      <c r="N18">
+        <v>8.568478584289551</v>
+      </c>
+      <c r="O18">
+        <v>0.3199544250965118</v>
+      </c>
+      <c r="P18">
+        <v>-2.808559894561768</v>
+      </c>
+      <c r="Q18">
+        <v>3.252674102783203</v>
+      </c>
+      <c r="R18">
+        <v>-9.741879463195801</v>
+      </c>
+      <c r="S18">
+        <v>1.233251452445984</v>
+      </c>
+      <c r="T18">
+        <v>-5.097684383392334</v>
+      </c>
+      <c r="U18">
+        <v>-4.103994846343994</v>
+      </c>
+      <c r="V18">
+        <v>1.489185571670532</v>
+      </c>
+      <c r="W18">
+        <v>12694.1142578125</v>
+      </c>
+      <c r="X18">
+        <v>3189.6298828125</v>
+      </c>
+      <c r="Y18">
+        <v>519.494384765625</v>
+      </c>
+      <c r="Z18">
+        <v>1031.226806640625</v>
+      </c>
+      <c r="AA18">
+        <v>1031.450805664062</v>
+      </c>
+      <c r="AB18">
+        <v>602.5993041992188</v>
+      </c>
+      <c r="AC18">
+        <v>243.9774780273438</v>
+      </c>
+      <c r="AD18">
+        <v>296.25634765625</v>
+      </c>
+      <c r="AE18">
+        <v>402.7181091308594</v>
+      </c>
+      <c r="AF18">
+        <v>97.12846374511719</v>
+      </c>
+      <c r="AG18">
+        <v>141.4187927246094</v>
+      </c>
+      <c r="AH18">
+        <v>133.5029754638672</v>
+      </c>
+      <c r="AI18">
+        <v>111.5148391723633</v>
+      </c>
+      <c r="AJ18">
+        <v>-0.7732318639755249</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
+        <v>7.506268978118896</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
         <v>0</v>
       </c>
     </row>
